--- a/state_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
+++ b/state_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2569805343399</v>
+        <v>2.26573134370939</v>
       </c>
       <c r="H2" t="n">
         <v>6.31</v>
@@ -587,7 +587,7 @@
         <v>3.649</v>
       </c>
       <c r="N2" t="n">
-        <v>4.368</v>
+        <v>4.4525</v>
       </c>
       <c r="O2" t="n">
         <v>1796445</v>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.00371</v>
+        <v>0.00369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0060847808609529</v>
+        <v>0.0060853632383882</v>
       </c>
       <c r="H3" t="n">
         <v>0.03</v>
@@ -662,7 +662,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.00371</v>
+        <v>0.00369</v>
       </c>
       <c r="M3" t="n">
         <v>0.008999999999999999</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.00371</v>
+        <v>0.00369</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0060847808609529</v>
+        <v>0.0060853632383882</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00371</v>
+        <v>0.00369</v>
       </c>
       <c r="M4" t="n">
         <v>0.008999999999999999</v>
@@ -813,7 +813,7 @@
         <v>172</v>
       </c>
       <c r="G5" t="n">
-        <v>944.002331840579</v>
+        <v>944.002105777521</v>
       </c>
       <c r="H5" t="n">
         <v>24200</v>
@@ -898,7 +898,7 @@
         <v>172</v>
       </c>
       <c r="G6" t="n">
-        <v>944.002331840579</v>
+        <v>944.002105777521</v>
       </c>
       <c r="H6" t="n">
         <v>24200</v>
@@ -983,7 +983,7 @@
         <v>172</v>
       </c>
       <c r="G7" t="n">
-        <v>944.002331840579</v>
+        <v>944.002105777521</v>
       </c>
       <c r="H7" t="n">
         <v>24200</v>
@@ -1068,7 +1068,7 @@
         <v>172</v>
       </c>
       <c r="G8" t="n">
-        <v>944.002331840579</v>
+        <v>944.002105777521</v>
       </c>
       <c r="H8" t="n">
         <v>24200</v>
@@ -1153,7 +1153,7 @@
         <v>0.00214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0059406143947694</v>
+        <v>0.0059484944166837</v>
       </c>
       <c r="H9" t="n">
         <v>0.0631294398799824</v>
@@ -1234,7 +1234,7 @@
         <v>0.00214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0059406143947694</v>
+        <v>0.0059484944166837</v>
       </c>
       <c r="H10" t="n">
         <v>0.0631294398799824</v>
@@ -1473,7 +1473,7 @@
         <v>0.389</v>
       </c>
       <c r="G13" t="n">
-        <v>0.364678571428571</v>
+        <v>0.364692857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0.72</v>
@@ -1487,7 +1487,7 @@
         <v>0.234</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5119</v>
+        <v>0.51239</v>
       </c>
       <c r="N13" t="n">
         <v>0.61012</v>
@@ -1550,7 +1550,7 @@
         <v>0.389</v>
       </c>
       <c r="G14" t="n">
-        <v>0.364678571428571</v>
+        <v>0.364692857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0.72</v>
@@ -1564,7 +1564,7 @@
         <v>0.234</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5119</v>
+        <v>0.51239</v>
       </c>
       <c r="N14" t="n">
         <v>0.61012</v>
@@ -1781,7 +1781,7 @@
         <v>0.0155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0211810409542207</v>
+        <v>0.0211658479463127</v>
       </c>
       <c r="H17" t="n">
         <v>0.171</v>
@@ -1858,7 +1858,7 @@
         <v>0.0155</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0211810409542207</v>
+        <v>0.0211658479463127</v>
       </c>
       <c r="H18" t="n">
         <v>0.171</v>
@@ -1939,7 +1939,7 @@
         <v>2.15</v>
       </c>
       <c r="G19" t="n">
-        <v>2.25332628134031</v>
+        <v>2.26261285454875</v>
       </c>
       <c r="H19" t="n">
         <v>6.31</v>
@@ -1956,7 +1956,7 @@
         <v>3.717</v>
       </c>
       <c r="N19" t="n">
-        <v>4.27865</v>
+        <v>4.46977</v>
       </c>
       <c r="O19" t="n">
         <v>1796445</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.00398</v>
+        <v>0.00394</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0049102608733229</v>
+        <v>0.0049008955762171</v>
       </c>
       <c r="H20" t="n">
         <v>0.021</v>
@@ -2031,7 +2031,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00401</v>
+        <v>0.00398</v>
       </c>
       <c r="M20" t="n">
         <v>0.006</v>
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.00398</v>
+        <v>0.00394</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0049102608733229</v>
+        <v>0.0049008955762171</v>
       </c>
       <c r="H21" t="n">
         <v>0.021</v>
@@ -2112,7 +2112,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.00401</v>
+        <v>0.00398</v>
       </c>
       <c r="M21" t="n">
         <v>0.006</v>
@@ -2522,7 +2522,7 @@
         <v>0.0042</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0061658647614627</v>
+        <v>0.0061726189616213</v>
       </c>
       <c r="H26" t="n">
         <v>0.03643949279636</v>
@@ -2603,7 +2603,7 @@
         <v>0.0042</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0061658647614627</v>
+        <v>0.0061726189616213</v>
       </c>
       <c r="H27" t="n">
         <v>0.03643949279636</v>
@@ -2842,7 +2842,7 @@
         <v>0.3845</v>
       </c>
       <c r="G30" t="n">
-        <v>0.368714285714286</v>
+        <v>0.368728571428571</v>
       </c>
       <c r="H30" t="n">
         <v>0.968</v>
@@ -2856,7 +2856,7 @@
         <v>0.234</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5218</v>
+        <v>0.52181</v>
       </c>
       <c r="N30" t="n">
         <v>0.6160600000000001</v>
@@ -2919,7 +2919,7 @@
         <v>0.3845</v>
       </c>
       <c r="G31" t="n">
-        <v>0.368714285714286</v>
+        <v>0.368728571428571</v>
       </c>
       <c r="H31" t="n">
         <v>0.968</v>
@@ -2933,7 +2933,7 @@
         <v>0.234</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5218</v>
+        <v>0.52181</v>
       </c>
       <c r="N31" t="n">
         <v>0.6160600000000001</v>
@@ -3150,7 +3150,7 @@
         <v>0.015</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0201845119952343</v>
+        <v>0.0201619881265045</v>
       </c>
       <c r="H34" t="n">
         <v>0.171</v>
@@ -3227,7 +3227,7 @@
         <v>0.015</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0201845119952343</v>
+        <v>0.0201619881265045</v>
       </c>
       <c r="H35" t="n">
         <v>0.171</v>
@@ -3389,13 +3389,13 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.07378407422892</v>
+        <v>2.08270646809585</v>
       </c>
       <c r="H37" t="n">
         <v>4.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.96884</v>
+        <v>4.40113</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3467,10 +3467,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.00435</v>
+        <v>0.00429</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0058021244158742</v>
+        <v>0.0057903318298829</v>
       </c>
       <c r="H38" t="n">
         <v>0.021</v>
@@ -3481,7 +3481,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.00438</v>
+        <v>0.00433</v>
       </c>
       <c r="M38" t="n">
         <v>0.00747</v>
@@ -3548,10 +3548,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.00435</v>
+        <v>0.00429</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0058021244158742</v>
+        <v>0.0057903318298829</v>
       </c>
       <c r="H39" t="n">
         <v>0.021</v>
@@ -3562,7 +3562,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.00438</v>
+        <v>0.00433</v>
       </c>
       <c r="M39" t="n">
         <v>0.00747</v>
@@ -4049,7 +4049,7 @@
         <v>0.00363</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0055485575455862</v>
+        <v>0.0055526485572152</v>
       </c>
       <c r="H45" t="n">
         <v>0.0309198009113341</v>
@@ -4130,7 +4130,7 @@
         <v>0.00363</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0055485575455862</v>
+        <v>0.0055526485572152</v>
       </c>
       <c r="H46" t="n">
         <v>0.0309198009113341</v>
@@ -4369,7 +4369,7 @@
         <v>0.377</v>
       </c>
       <c r="G49" t="n">
-        <v>0.368440677966102</v>
+        <v>0.368459322033898</v>
       </c>
       <c r="H49" t="n">
         <v>0.968</v>
@@ -4380,7 +4380,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.216</v>
+        <v>0.21605</v>
       </c>
       <c r="M49" t="n">
         <v>0.52147</v>
@@ -4446,7 +4446,7 @@
         <v>0.377</v>
       </c>
       <c r="G50" t="n">
-        <v>0.368440677966102</v>
+        <v>0.368459322033898</v>
       </c>
       <c r="H50" t="n">
         <v>0.968</v>
@@ -4457,7 +4457,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.216</v>
+        <v>0.21605</v>
       </c>
       <c r="M50" t="n">
         <v>0.52147</v>
@@ -4677,7 +4677,7 @@
         <v>0.015</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02049716392768</v>
+        <v>0.020475785340411</v>
       </c>
       <c r="H53" t="n">
         <v>0.171</v>
@@ -4754,7 +4754,7 @@
         <v>0.015</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02049716392768</v>
+        <v>0.020475785340411</v>
       </c>
       <c r="H54" t="n">
         <v>0.171</v>
@@ -4993,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2.1301261389002</v>
+        <v>2.11738921712951</v>
       </c>
       <c r="H57" t="n">
         <v>8.641</v>
       </c>
       <c r="I57" t="n">
-        <v>3.96934</v>
+        <v>4.40163</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -5007,7 +5007,7 @@
         <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>3.18937</v>
+        <v>3.166</v>
       </c>
       <c r="N57" t="n">
         <v>3.842</v>
@@ -5074,7 +5074,7 @@
         <v>0.005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.007817546789003701</v>
+        <v>0.0078045646296645</v>
       </c>
       <c r="H58" t="n">
         <v>0.026</v>
@@ -5155,7 +5155,7 @@
         <v>0.005</v>
       </c>
       <c r="G59" t="n">
-        <v>0.007817546789003701</v>
+        <v>0.0078045646296645</v>
       </c>
       <c r="H59" t="n">
         <v>0.026</v>
@@ -5653,7 +5653,7 @@
         <v>0.00345</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0054249320980713</v>
+        <v>0.0054283430850965</v>
       </c>
       <c r="H65" t="n">
         <v>0.0309198009113341</v>
@@ -5664,7 +5664,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.00262</v>
+        <v>0.0026</v>
       </c>
       <c r="M65" t="n">
         <v>0.00869</v>
@@ -5734,7 +5734,7 @@
         <v>0.00345</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0054249320980713</v>
+        <v>0.0054283430850965</v>
       </c>
       <c r="H66" t="n">
         <v>0.0309198009113341</v>
@@ -5745,7 +5745,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.00262</v>
+        <v>0.0026</v>
       </c>
       <c r="M66" t="n">
         <v>0.00869</v>
@@ -6047,10 +6047,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.357</v>
+        <v>0.3575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.360322033898305</v>
+        <v>0.360357627118644</v>
       </c>
       <c r="H70" t="n">
         <v>0.968</v>
@@ -6061,10 +6061,10 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.216</v>
+        <v>0.21605</v>
       </c>
       <c r="M70" t="n">
-        <v>0.51623</v>
+        <v>0.51618</v>
       </c>
       <c r="N70" t="n">
         <v>0.65098</v>
@@ -6124,10 +6124,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.357</v>
+        <v>0.3575</v>
       </c>
       <c r="G71" t="n">
-        <v>0.360322033898305</v>
+        <v>0.360357627118644</v>
       </c>
       <c r="H71" t="n">
         <v>0.968</v>
@@ -6138,10 +6138,10 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.216</v>
+        <v>0.21605</v>
       </c>
       <c r="M71" t="n">
-        <v>0.51623</v>
+        <v>0.51618</v>
       </c>
       <c r="N71" t="n">
         <v>0.65098</v>
@@ -6358,7 +6358,7 @@
         <v>0.015</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0174802147751377</v>
+        <v>0.0174588361878687</v>
       </c>
       <c r="H74" t="n">
         <v>0.091</v>
@@ -6435,7 +6435,7 @@
         <v>0.015</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0174802147751377</v>
+        <v>0.0174588361878687</v>
       </c>
       <c r="H75" t="n">
         <v>0.091</v>
@@ -6674,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>2.1212689059647</v>
+        <v>2.09917640401433</v>
       </c>
       <c r="H78" t="n">
         <v>8.641</v>
@@ -6688,7 +6688,7 @@
         <v>2.35</v>
       </c>
       <c r="M78" t="n">
-        <v>3.13745</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
         <v>3.65</v>
@@ -6755,7 +6755,7 @@
         <v>0.006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008770844232601599</v>
+        <v>0.008758709091917101</v>
       </c>
       <c r="H79" t="n">
         <v>0.026</v>
@@ -6836,7 +6836,7 @@
         <v>0.006</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008770844232601599</v>
+        <v>0.008758709091917101</v>
       </c>
       <c r="H80" t="n">
         <v>0.026</v>
@@ -7331,10 +7331,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.00184</v>
+        <v>0.00193</v>
       </c>
       <c r="G86" t="n">
-        <v>0.005149060280934</v>
+        <v>0.0051577483598256</v>
       </c>
       <c r="H86" t="n">
         <v>0.0309198009113341</v>
@@ -7345,7 +7345,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00155</v>
+        <v>0.00159</v>
       </c>
       <c r="M86" t="n">
         <v>0.008869999999999999</v>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.00184</v>
+        <v>0.00193</v>
       </c>
       <c r="G87" t="n">
-        <v>0.005149060280934</v>
+        <v>0.0051577483598256</v>
       </c>
       <c r="H87" t="n">
         <v>0.0309198009113341</v>
@@ -7426,7 +7426,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00155</v>
+        <v>0.00159</v>
       </c>
       <c r="M87" t="n">
         <v>0.008869999999999999</v>
@@ -7728,7 +7728,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.37</v>
+        <v>0.37025</v>
       </c>
       <c r="G91" t="n">
         <v>0.3691</v>
@@ -7737,15 +7737,15 @@
         <v>0.968</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7735</v>
+        <v>0.77345</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.2045</v>
+        <v>0.2044</v>
       </c>
       <c r="M91" t="n">
-        <v>0.5129</v>
+        <v>0.51283</v>
       </c>
       <c r="N91" t="n">
         <v>0.7502</v>
@@ -7805,7 +7805,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.37</v>
+        <v>0.37025</v>
       </c>
       <c r="G92" t="n">
         <v>0.3691</v>
@@ -7814,15 +7814,15 @@
         <v>0.968</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7735</v>
+        <v>0.77345</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.2045</v>
+        <v>0.2044</v>
       </c>
       <c r="M92" t="n">
-        <v>0.5129</v>
+        <v>0.51283</v>
       </c>
       <c r="N92" t="n">
         <v>0.7502</v>
@@ -8039,7 +8039,7 @@
         <v>0.015</v>
       </c>
       <c r="G95" t="n">
-        <v>0.020272211195552</v>
+        <v>0.0202511889180709</v>
       </c>
       <c r="H95" t="n">
         <v>0.182</v>
@@ -8116,7 +8116,7 @@
         <v>0.015</v>
       </c>
       <c r="G96" t="n">
-        <v>0.020272211195552</v>
+        <v>0.0202511889180709</v>
       </c>
       <c r="H96" t="n">
         <v>0.182</v>
@@ -8352,10 +8352,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.05</v>
+        <v>2.01641</v>
       </c>
       <c r="G99" t="n">
-        <v>2.22791527038695</v>
+        <v>2.19647235881726</v>
       </c>
       <c r="H99" t="n">
         <v>8.641</v>
@@ -8369,7 +8369,7 @@
         <v>2.15</v>
       </c>
       <c r="M99" t="n">
-        <v>3.13745</v>
+        <v>3</v>
       </c>
       <c r="N99" t="n">
         <v>3.85</v>
@@ -8436,7 +8436,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0118521645763671</v>
+        <v>0.0118437020639426</v>
       </c>
       <c r="H100" t="n">
         <v>0.141</v>
@@ -8517,7 +8517,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0118521645763671</v>
+        <v>0.0118437020639426</v>
       </c>
       <c r="H101" t="n">
         <v>0.141</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0035164527645082</v>
+        <v>0.003533409514724</v>
       </c>
       <c r="H107" t="n">
         <v>0.0309198009113341</v>
@@ -9026,7 +9026,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00119</v>
+        <v>0.00121</v>
       </c>
       <c r="M107" t="n">
         <v>0.00609</v>
@@ -9093,10 +9093,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0035164527645082</v>
+        <v>0.003533409514724</v>
       </c>
       <c r="H108" t="n">
         <v>0.0309198009113341</v>
@@ -9107,7 +9107,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00119</v>
+        <v>0.00121</v>
       </c>
       <c r="M108" t="n">
         <v>0.00609</v>
@@ -9409,7 +9409,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.3435</v>
+        <v>0.3436</v>
       </c>
       <c r="G112" t="n">
         <v>0.3604</v>
@@ -9418,7 +9418,7 @@
         <v>0.968</v>
       </c>
       <c r="I112" t="n">
-        <v>0.789</v>
+        <v>0.78895</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9429,7 +9429,7 @@
         <v>0.5168</v>
       </c>
       <c r="N112" t="n">
-        <v>0.7761</v>
+        <v>0.77603</v>
       </c>
       <c r="O112" t="n">
         <v>1796445</v>
@@ -9486,7 +9486,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.3435</v>
+        <v>0.3436</v>
       </c>
       <c r="G113" t="n">
         <v>0.3604</v>
@@ -9495,7 +9495,7 @@
         <v>0.968</v>
       </c>
       <c r="I113" t="n">
-        <v>0.789</v>
+        <v>0.78895</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -9506,7 +9506,7 @@
         <v>0.5168</v>
       </c>
       <c r="N113" t="n">
-        <v>0.7761</v>
+        <v>0.77603</v>
       </c>
       <c r="O113" t="n">
         <v>1796445</v>
@@ -9720,7 +9720,7 @@
         <v>0.0155</v>
       </c>
       <c r="G116" t="n">
-        <v>0.021366016686564</v>
+        <v>0.021355955807774</v>
       </c>
       <c r="H116" t="n">
         <v>0.182</v>
@@ -9797,7 +9797,7 @@
         <v>0.0155</v>
       </c>
       <c r="G117" t="n">
-        <v>0.021366016686564</v>
+        <v>0.021355955807774</v>
       </c>
       <c r="H117" t="n">
         <v>0.182</v>
@@ -10036,7 +10036,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>2.19671251923297</v>
+        <v>2.16704939511063</v>
       </c>
       <c r="H120" t="n">
         <v>8.641</v>
@@ -10050,7 +10050,7 @@
         <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>3</v>
+        <v>2.847</v>
       </c>
       <c r="N120" t="n">
         <v>3.9</v>
@@ -10117,7 +10117,7 @@
         <v>0.0105</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0145602038841567</v>
+        <v>0.0145591288409238</v>
       </c>
       <c r="H121" t="n">
         <v>0.141</v>
@@ -10198,7 +10198,7 @@
         <v>0.0105</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0145602038841567</v>
+        <v>0.0145591288409238</v>
       </c>
       <c r="H122" t="n">
         <v>0.141</v>
@@ -10693,10 +10693,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00134</v>
+        <v>0.00139</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0030945360742087</v>
+        <v>0.0031218083962724</v>
       </c>
       <c r="H128" t="n">
         <v>0.0529973646067659</v>
@@ -10710,10 +10710,10 @@
         <v>0.00126</v>
       </c>
       <c r="M128" t="n">
-        <v>0.00341</v>
+        <v>0.00345</v>
       </c>
       <c r="N128" t="n">
-        <v>0.00626</v>
+        <v>0.00628</v>
       </c>
       <c r="O128" t="n">
         <v>1796445</v>
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00134</v>
+        <v>0.00139</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0030945360742087</v>
+        <v>0.0031218083962724</v>
       </c>
       <c r="H129" t="n">
         <v>0.0529973646067659</v>
@@ -10791,10 +10791,10 @@
         <v>0.00126</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00341</v>
+        <v>0.00345</v>
       </c>
       <c r="N129" t="n">
-        <v>0.00626</v>
+        <v>0.00628</v>
       </c>
       <c r="O129" t="n">
         <v>1796445</v>
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.3435</v>
+        <v>0.3436</v>
       </c>
       <c r="G133" t="n">
         <v>0.3663</v>
@@ -11099,7 +11099,7 @@
         <v>0.875</v>
       </c>
       <c r="I133" t="n">
-        <v>0.7825</v>
+        <v>0.78245</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.3435</v>
+        <v>0.3436</v>
       </c>
       <c r="G134" t="n">
         <v>0.3663</v>
@@ -11176,7 +11176,7 @@
         <v>0.875</v>
       </c>
       <c r="I134" t="n">
-        <v>0.7825</v>
+        <v>0.78245</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -11401,7 +11401,7 @@
         <v>0.015</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0209794437149513</v>
+        <v>0.0209762249729284</v>
       </c>
       <c r="H137" t="n">
         <v>0.182</v>
@@ -11478,7 +11478,7 @@
         <v>0.015</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0209794437149513</v>
+        <v>0.0209762249729284</v>
       </c>
       <c r="H138" t="n">
         <v>0.182</v>
@@ -11717,7 +11717,7 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>2.15955933671541</v>
+        <v>2.13097487165206</v>
       </c>
       <c r="H141" t="n">
         <v>8.641</v>
@@ -11731,7 +11731,7 @@
         <v>1.95</v>
       </c>
       <c r="M141" t="n">
-        <v>3</v>
+        <v>2.745</v>
       </c>
       <c r="N141" t="n">
         <v>3.91</v>
@@ -12374,10 +12374,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.00184</v>
+        <v>0.00191</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0037626370477189</v>
+        <v>0.0037951670353256</v>
       </c>
       <c r="H149" t="n">
         <v>0.0529973646067659</v>
@@ -12388,13 +12388,13 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00169</v>
+        <v>0.00174</v>
       </c>
       <c r="M149" t="n">
-        <v>0.00398</v>
+        <v>0.00402</v>
       </c>
       <c r="N149" t="n">
-        <v>0.00827</v>
+        <v>0.00829</v>
       </c>
       <c r="O149" t="n">
         <v>1796445</v>
@@ -12455,10 +12455,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.00184</v>
+        <v>0.00191</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0037626370477189</v>
+        <v>0.0037951670353256</v>
       </c>
       <c r="H150" t="n">
         <v>0.0529973646067659</v>
@@ -12469,13 +12469,13 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00169</v>
+        <v>0.00174</v>
       </c>
       <c r="M150" t="n">
-        <v>0.00398</v>
+        <v>0.00402</v>
       </c>
       <c r="N150" t="n">
-        <v>0.00827</v>
+        <v>0.00829</v>
       </c>
       <c r="O150" t="n">
         <v>1796445</v>
@@ -12774,7 +12774,7 @@
         <v>0.37</v>
       </c>
       <c r="G154" t="n">
-        <v>0.374566666666667</v>
+        <v>0.374565</v>
       </c>
       <c r="H154" t="n">
         <v>0.875</v>
@@ -12851,7 +12851,7 @@
         <v>0.37</v>
       </c>
       <c r="G155" t="n">
-        <v>0.374566666666667</v>
+        <v>0.374565</v>
       </c>
       <c r="H155" t="n">
         <v>0.875</v>
@@ -13082,7 +13082,7 @@
         <v>0.015</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0208294437149513</v>
+        <v>0.0208262249729284</v>
       </c>
       <c r="H158" t="n">
         <v>0.182</v>
@@ -13159,7 +13159,7 @@
         <v>0.015</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0208294437149513</v>
+        <v>0.0208262249729284</v>
       </c>
       <c r="H159" t="n">
         <v>0.182</v>
@@ -13398,10 +13398,10 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>2.15390031966863</v>
+        <v>2.14569820596749</v>
       </c>
       <c r="H162" t="n">
-        <v>7.83831822111218</v>
+        <v>7.37079774014671</v>
       </c>
       <c r="I162" t="n">
         <v>3.965</v>
@@ -14055,10 +14055,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.00252</v>
+        <v>0.00261</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0045797539974328</v>
+        <v>0.0046015689419522</v>
       </c>
       <c r="H170" t="n">
         <v>0.0529973646067659</v>
@@ -14069,13 +14069,13 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.00196</v>
+        <v>0.00197</v>
       </c>
       <c r="M170" t="n">
-        <v>0.00485</v>
+        <v>0.00479</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01112</v>
+        <v>0.01088</v>
       </c>
       <c r="O170" t="n">
         <v>1796445</v>
@@ -14136,10 +14136,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.00252</v>
+        <v>0.00261</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0045797539974328</v>
+        <v>0.0046015689419522</v>
       </c>
       <c r="H171" t="n">
         <v>0.0529973646067659</v>
@@ -14150,13 +14150,13 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00196</v>
+        <v>0.00197</v>
       </c>
       <c r="M171" t="n">
-        <v>0.00485</v>
+        <v>0.00479</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01112</v>
+        <v>0.01088</v>
       </c>
       <c r="O171" t="n">
         <v>1796445</v>
@@ -14455,7 +14455,7 @@
         <v>0.3625</v>
       </c>
       <c r="G175" t="n">
-        <v>0.366733333333333</v>
+        <v>0.366706666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0.875</v>
@@ -14532,7 +14532,7 @@
         <v>0.3625</v>
       </c>
       <c r="G176" t="n">
-        <v>0.366733333333333</v>
+        <v>0.366706666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0.875</v>
@@ -14763,7 +14763,7 @@
         <v>0.015</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0197627770482846</v>
+        <v>0.0197595583062617</v>
       </c>
       <c r="H179" t="n">
         <v>0.182</v>
@@ -14840,7 +14840,7 @@
         <v>0.015</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0197627770482846</v>
+        <v>0.0197595583062617</v>
       </c>
       <c r="H180" t="n">
         <v>0.182</v>
@@ -15079,10 +15079,10 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>2.20376810544258</v>
+        <v>2.19584402949401</v>
       </c>
       <c r="H183" t="n">
-        <v>7.83831822111218</v>
+        <v>7.37079774014671</v>
       </c>
       <c r="I183" t="n">
         <v>3.955</v>
@@ -15736,10 +15736,10 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.00286</v>
+        <v>0.00283</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0059124922965786</v>
+        <v>0.0059307328857668</v>
       </c>
       <c r="H191" t="n">
         <v>0.0648900565784367</v>
@@ -15750,13 +15750,13 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.00213</v>
+        <v>0.00216</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0057</v>
+        <v>0.00583</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01174</v>
+        <v>0.01151</v>
       </c>
       <c r="O191" t="n">
         <v>1796445</v>
@@ -15817,10 +15817,10 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.00286</v>
+        <v>0.00283</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0059124922965786</v>
+        <v>0.0059307328857668</v>
       </c>
       <c r="H192" t="n">
         <v>0.0648900565784367</v>
@@ -15831,13 +15831,13 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00213</v>
+        <v>0.00216</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0057</v>
+        <v>0.00583</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01174</v>
+        <v>0.01151</v>
       </c>
       <c r="O192" t="n">
         <v>1796445</v>
@@ -16136,7 +16136,7 @@
         <v>0.355</v>
       </c>
       <c r="G196" t="n">
-        <v>0.358677966101695</v>
+        <v>0.358661016949153</v>
       </c>
       <c r="H196" t="n">
         <v>0.875</v>
@@ -16153,7 +16153,7 @@
         <v>0.5697</v>
       </c>
       <c r="N196" t="n">
-        <v>0.64078</v>
+        <v>0.64039</v>
       </c>
       <c r="O196" t="n">
         <v>1796445</v>
@@ -16213,7 +16213,7 @@
         <v>0.355</v>
       </c>
       <c r="G197" t="n">
-        <v>0.358677966101695</v>
+        <v>0.358661016949153</v>
       </c>
       <c r="H197" t="n">
         <v>0.875</v>
@@ -16230,7 +16230,7 @@
         <v>0.5697</v>
       </c>
       <c r="N197" t="n">
-        <v>0.64078</v>
+        <v>0.64039</v>
       </c>
       <c r="O197" t="n">
         <v>1796445</v>
@@ -16444,7 +16444,7 @@
         <v>0.015</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0165723156423233</v>
+        <v>0.0165690423453509</v>
       </c>
       <c r="H200" t="n">
         <v>0.047</v>
@@ -16521,7 +16521,7 @@
         <v>0.015</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0165723156423233</v>
+        <v>0.0165690423453509</v>
       </c>
       <c r="H201" t="n">
         <v>0.047</v>
@@ -17003,10 +17003,10 @@
         <v>200</v>
       </c>
       <c r="G207" t="n">
-        <v>480.161038415353</v>
+        <v>510.839764145816</v>
       </c>
       <c r="H207" t="n">
-        <v>7810.50126650582</v>
+        <v>9620.54608460312</v>
       </c>
       <c r="I207" t="n">
         <v>1500</v>
@@ -17088,10 +17088,10 @@
         <v>200</v>
       </c>
       <c r="G208" t="n">
-        <v>480.161038415353</v>
+        <v>510.839764145816</v>
       </c>
       <c r="H208" t="n">
-        <v>7810.50126650582</v>
+        <v>9620.54608460312</v>
       </c>
       <c r="I208" t="n">
         <v>1500</v>
@@ -17173,10 +17173,10 @@
         <v>200</v>
       </c>
       <c r="G209" t="n">
-        <v>480.161038415353</v>
+        <v>510.839764145816</v>
       </c>
       <c r="H209" t="n">
-        <v>7810.50126650582</v>
+        <v>9620.54608460312</v>
       </c>
       <c r="I209" t="n">
         <v>1500</v>
@@ -17258,10 +17258,10 @@
         <v>200</v>
       </c>
       <c r="G210" t="n">
-        <v>480.161038415353</v>
+        <v>510.839764145816</v>
       </c>
       <c r="H210" t="n">
-        <v>7810.50126650582</v>
+        <v>9620.54608460312</v>
       </c>
       <c r="I210" t="n">
         <v>1500</v>
@@ -17417,10 +17417,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.00319</v>
+        <v>0.00322</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0063270118052288</v>
+        <v>0.0063345024199949</v>
       </c>
       <c r="H212" t="n">
         <v>0.0648900565784367</v>
@@ -17431,13 +17431,13 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.00265</v>
+        <v>0.00266</v>
       </c>
       <c r="M212" t="n">
         <v>0.00711</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01143</v>
+        <v>0.01119</v>
       </c>
       <c r="O212" t="n">
         <v>1796445</v>
@@ -17498,10 +17498,10 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.00319</v>
+        <v>0.00322</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0063270118052288</v>
+        <v>0.0063345024199949</v>
       </c>
       <c r="H213" t="n">
         <v>0.0648900565784367</v>
@@ -17512,13 +17512,13 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>0.00265</v>
+        <v>0.00266</v>
       </c>
       <c r="M213" t="n">
         <v>0.00711</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01143</v>
+        <v>0.01119</v>
       </c>
       <c r="O213" t="n">
         <v>1796445</v>
@@ -17817,13 +17817,13 @@
         <v>0.355</v>
       </c>
       <c r="G217" t="n">
-        <v>0.349881355932203</v>
+        <v>0.349864406779661</v>
       </c>
       <c r="H217" t="n">
         <v>0.765</v>
       </c>
       <c r="I217" t="n">
-        <v>0.64055</v>
+        <v>0.64027</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         <v>0.505</v>
       </c>
       <c r="N217" t="n">
-        <v>0.61748</v>
+        <v>0.61709</v>
       </c>
       <c r="O217" t="n">
         <v>1796445</v>
@@ -17894,13 +17894,13 @@
         <v>0.355</v>
       </c>
       <c r="G218" t="n">
-        <v>0.349881355932203</v>
+        <v>0.349864406779661</v>
       </c>
       <c r="H218" t="n">
         <v>0.765</v>
       </c>
       <c r="I218" t="n">
-        <v>0.64055</v>
+        <v>0.64027</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -17911,7 +17911,7 @@
         <v>0.505</v>
       </c>
       <c r="N218" t="n">
-        <v>0.61748</v>
+        <v>0.61709</v>
       </c>
       <c r="O218" t="n">
         <v>1796445</v>
@@ -18684,7 +18684,7 @@
         <v>200</v>
       </c>
       <c r="G228" t="n">
-        <v>796.872902822132</v>
+        <v>827.551628552595</v>
       </c>
       <c r="H228" t="n">
         <v>17230</v>
@@ -18769,7 +18769,7 @@
         <v>200</v>
       </c>
       <c r="G229" t="n">
-        <v>796.872902822132</v>
+        <v>827.551628552595</v>
       </c>
       <c r="H229" t="n">
         <v>17230</v>
@@ -18854,7 +18854,7 @@
         <v>200</v>
       </c>
       <c r="G230" t="n">
-        <v>796.872902822132</v>
+        <v>827.551628552595</v>
       </c>
       <c r="H230" t="n">
         <v>17230</v>
@@ -18939,7 +18939,7 @@
         <v>200</v>
       </c>
       <c r="G231" t="n">
-        <v>796.872902822132</v>
+        <v>827.551628552595</v>
       </c>
       <c r="H231" t="n">
         <v>17230</v>
@@ -19098,10 +19098,10 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0.0038</v>
+        <v>0.00381</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0084177122125826</v>
+        <v>0.008412787520137801</v>
       </c>
       <c r="H233" t="n">
         <v>0.0898601398601399</v>
@@ -19115,7 +19115,7 @@
         <v>0.00365</v>
       </c>
       <c r="M233" t="n">
-        <v>0.008920000000000001</v>
+        <v>0.00889</v>
       </c>
       <c r="N233" t="n">
         <v>0.01653</v>
@@ -19179,10 +19179,10 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0.0038</v>
+        <v>0.00381</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0084177122125826</v>
+        <v>0.008412787520137801</v>
       </c>
       <c r="H234" t="n">
         <v>0.0898601398601399</v>
@@ -19196,7 +19196,7 @@
         <v>0.00365</v>
       </c>
       <c r="M234" t="n">
-        <v>0.008920000000000001</v>
+        <v>0.00889</v>
       </c>
       <c r="N234" t="n">
         <v>0.01653</v>
@@ -19498,13 +19498,13 @@
         <v>0.355</v>
       </c>
       <c r="G238" t="n">
-        <v>0.365627118644068</v>
+        <v>0.365610169491525</v>
       </c>
       <c r="H238" t="n">
         <v>1.327</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6652</v>
+        <v>0.66497</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -19515,7 +19515,7 @@
         <v>0.50341</v>
       </c>
       <c r="N238" t="n">
-        <v>0.62412</v>
+        <v>0.62401</v>
       </c>
       <c r="O238" t="n">
         <v>1796445</v>
@@ -19575,13 +19575,13 @@
         <v>0.355</v>
       </c>
       <c r="G239" t="n">
-        <v>0.365627118644068</v>
+        <v>0.365610169491525</v>
       </c>
       <c r="H239" t="n">
         <v>1.327</v>
       </c>
       <c r="I239" t="n">
-        <v>0.6652</v>
+        <v>0.66497</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
@@ -19592,7 +19592,7 @@
         <v>0.50341</v>
       </c>
       <c r="N239" t="n">
-        <v>0.62412</v>
+        <v>0.62401</v>
       </c>
       <c r="O239" t="n">
         <v>1796445</v>
@@ -19934,6 +19934,1687 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.3956</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G245" t="n">
+        <v>41.2738636363636</v>
+      </c>
+      <c r="H245" t="n">
+        <v>145</v>
+      </c>
+      <c r="I245" t="n">
+        <v>113</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>20</v>
+      </c>
+      <c r="M245" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="N245" t="n">
+        <v>100</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2.23413043478261</v>
+      </c>
+      <c r="H246" t="n">
+        <v>5</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>3</v>
+      </c>
+      <c r="M246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>4</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.0094067796610169</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.01955</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.0094067796610169</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.01955</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>215</v>
+      </c>
+      <c r="G249" t="n">
+        <v>884.716311803502</v>
+      </c>
+      <c r="H249" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3785.2</v>
+      </c>
+      <c r="J249" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K249" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L249" t="n">
+        <v>215</v>
+      </c>
+      <c r="M249" t="n">
+        <v>742.4</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1348.9</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>215</v>
+      </c>
+      <c r="G250" t="n">
+        <v>884.716311803502</v>
+      </c>
+      <c r="H250" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3785.2</v>
+      </c>
+      <c r="J250" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K250" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L250" t="n">
+        <v>215</v>
+      </c>
+      <c r="M250" t="n">
+        <v>742.4</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1348.9</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>215</v>
+      </c>
+      <c r="G251" t="n">
+        <v>884.716311803502</v>
+      </c>
+      <c r="H251" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3785.2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K251" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L251" t="n">
+        <v>215</v>
+      </c>
+      <c r="M251" t="n">
+        <v>742.4</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1348.9</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>215</v>
+      </c>
+      <c r="G252" t="n">
+        <v>884.716311803502</v>
+      </c>
+      <c r="H252" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3785.2</v>
+      </c>
+      <c r="J252" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K252" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L252" t="n">
+        <v>215</v>
+      </c>
+      <c r="M252" t="n">
+        <v>742.4</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1348.9</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>98</v>
+      </c>
+      <c r="G253" t="n">
+        <v>97.40600000000001</v>
+      </c>
+      <c r="H253" t="n">
+        <v>103</v>
+      </c>
+      <c r="I253" t="n">
+        <v>103</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="M253" t="n">
+        <v>102.2405</v>
+      </c>
+      <c r="N253" t="n">
+        <v>103</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0088570777633295</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.0898601398601399</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.04711</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.01033</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.01544</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.0088570777633295</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.0898601398601399</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.04711</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.01033</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.01544</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.362322033898305</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.57857</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.67066</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.362322033898305</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.57857</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.67066</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G258" t="n">
+        <v>3.9242</v>
+      </c>
+      <c r="H258" t="n">
+        <v>4.645</v>
+      </c>
+      <c r="I258" t="n">
+        <v>4.645</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="M258" t="n">
+        <v>4.51025</v>
+      </c>
+      <c r="N258" t="n">
+        <v>4.645</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.381398305084746</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.77505</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.59905</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.67708</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.381398305084746</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.77505</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.59905</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.67708</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.533389830508475</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.9085</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.6994</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.8502</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.533389830508475</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.9085</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.6994</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.8502</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.0243898305084746</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.05095</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.03335</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.0243898305084746</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.05095</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.03335</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
+++ b/state_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
@@ -570,7 +570,7 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26573134370939</v>
+        <v>2.23871145910904</v>
       </c>
       <c r="H2" t="n">
         <v>6.31</v>
@@ -584,10 +584,10 @@
         <v>2.7</v>
       </c>
       <c r="M2" t="n">
-        <v>3.649</v>
+        <v>3.533</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4525</v>
+        <v>4.368</v>
       </c>
       <c r="O2" t="n">
         <v>1796445</v>
@@ -1939,7 +1939,7 @@
         <v>2.15</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26261285454875</v>
+        <v>2.23393869129939</v>
       </c>
       <c r="H19" t="n">
         <v>6.31</v>
@@ -1953,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>3.717</v>
+        <v>3.534</v>
       </c>
       <c r="N19" t="n">
-        <v>4.46977</v>
+        <v>4.2438</v>
       </c>
       <c r="O19" t="n">
         <v>1796445</v>
@@ -3389,13 +3389,13 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.08270646809585</v>
+        <v>2.05515678183667</v>
       </c>
       <c r="H37" t="n">
         <v>4.8</v>
       </c>
       <c r="I37" t="n">
-        <v>4.40113</v>
+        <v>3.8855</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         <v>2.75</v>
       </c>
       <c r="M37" t="n">
-        <v>3.2</v>
+        <v>3.16991</v>
       </c>
       <c r="N37" t="n">
-        <v>3.8378</v>
+        <v>3.742</v>
       </c>
       <c r="O37" t="n">
         <v>1796445</v>
@@ -4993,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2.11738921712951</v>
+        <v>2.13511085147069</v>
       </c>
       <c r="H57" t="n">
         <v>8.641</v>
       </c>
       <c r="I57" t="n">
-        <v>4.40163</v>
+        <v>4.31957</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -5007,7 +5007,7 @@
         <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>3.166</v>
+        <v>3.16991</v>
       </c>
       <c r="N57" t="n">
         <v>3.842</v>
@@ -6674,13 +6674,13 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>2.09917640401433</v>
+        <v>2.14535315102671</v>
       </c>
       <c r="H78" t="n">
         <v>8.641</v>
       </c>
       <c r="I78" t="n">
-        <v>3.9</v>
+        <v>4.34166</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6688,10 +6688,10 @@
         <v>2.35</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N78" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O78" t="n">
         <v>1796445</v>
@@ -8352,16 +8352,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.01641</v>
+        <v>2.05</v>
       </c>
       <c r="G99" t="n">
-        <v>2.19647235881726</v>
+        <v>2.24929269894872</v>
       </c>
       <c r="H99" t="n">
         <v>8.641</v>
       </c>
       <c r="I99" t="n">
-        <v>4.214</v>
+        <v>4.34166</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -8369,10 +8369,10 @@
         <v>2.15</v>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N99" t="n">
-        <v>3.85</v>
+        <v>4.057</v>
       </c>
       <c r="O99" t="n">
         <v>1796445</v>
@@ -10036,13 +10036,13 @@
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>2.16704939511063</v>
+        <v>2.2168799046686</v>
       </c>
       <c r="H120" t="n">
         <v>8.641</v>
       </c>
       <c r="I120" t="n">
-        <v>4.1669</v>
+        <v>4.32251</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -10050,10 +10050,10 @@
         <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>2.847</v>
+        <v>3</v>
       </c>
       <c r="N120" t="n">
-        <v>3.9</v>
+        <v>3.98164</v>
       </c>
       <c r="O120" t="n">
         <v>1796445</v>
@@ -11717,13 +11717,13 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>2.13097487165206</v>
+        <v>2.17899336268065</v>
       </c>
       <c r="H141" t="n">
         <v>8.641</v>
       </c>
       <c r="I141" t="n">
-        <v>4.1605</v>
+        <v>4.30974</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -11731,10 +11731,10 @@
         <v>1.95</v>
       </c>
       <c r="M141" t="n">
-        <v>2.745</v>
+        <v>3</v>
       </c>
       <c r="N141" t="n">
-        <v>3.91</v>
+        <v>4.0214</v>
       </c>
       <c r="O141" t="n">
         <v>1796445</v>
@@ -13398,10 +13398,10 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>2.14569820596749</v>
+        <v>2.15152591922984</v>
       </c>
       <c r="H162" t="n">
-        <v>7.37079774014671</v>
+        <v>7.7029773961006</v>
       </c>
       <c r="I162" t="n">
         <v>3.965</v>
@@ -15079,10 +15079,10 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>2.19584402949401</v>
+        <v>2.20147419315425</v>
       </c>
       <c r="H183" t="n">
-        <v>7.37079774014671</v>
+        <v>7.7029773961006</v>
       </c>
       <c r="I183" t="n">
         <v>3.955</v>
@@ -17003,10 +17003,10 @@
         <v>200</v>
       </c>
       <c r="G207" t="n">
-        <v>510.839764145816</v>
+        <v>499.626026971454</v>
       </c>
       <c r="H207" t="n">
-        <v>9620.54608460312</v>
+        <v>8958.935591315811</v>
       </c>
       <c r="I207" t="n">
         <v>1500</v>
@@ -17088,10 +17088,10 @@
         <v>200</v>
       </c>
       <c r="G208" t="n">
-        <v>510.839764145816</v>
+        <v>499.626026971454</v>
       </c>
       <c r="H208" t="n">
-        <v>9620.54608460312</v>
+        <v>8958.935591315811</v>
       </c>
       <c r="I208" t="n">
         <v>1500</v>
@@ -17173,10 +17173,10 @@
         <v>200</v>
       </c>
       <c r="G209" t="n">
-        <v>510.839764145816</v>
+        <v>499.626026971454</v>
       </c>
       <c r="H209" t="n">
-        <v>9620.54608460312</v>
+        <v>8958.935591315811</v>
       </c>
       <c r="I209" t="n">
         <v>1500</v>
@@ -17258,10 +17258,10 @@
         <v>200</v>
       </c>
       <c r="G210" t="n">
-        <v>510.839764145816</v>
+        <v>499.626026971454</v>
       </c>
       <c r="H210" t="n">
-        <v>9620.54608460312</v>
+        <v>8958.935591315811</v>
       </c>
       <c r="I210" t="n">
         <v>1500</v>
@@ -18684,7 +18684,7 @@
         <v>200</v>
       </c>
       <c r="G228" t="n">
-        <v>827.551628552595</v>
+        <v>816.337891378234</v>
       </c>
       <c r="H228" t="n">
         <v>17230</v>
@@ -18769,7 +18769,7 @@
         <v>200</v>
       </c>
       <c r="G229" t="n">
-        <v>827.551628552595</v>
+        <v>816.337891378234</v>
       </c>
       <c r="H229" t="n">
         <v>17230</v>
@@ -18854,7 +18854,7 @@
         <v>200</v>
       </c>
       <c r="G230" t="n">
-        <v>827.551628552595</v>
+        <v>816.337891378234</v>
       </c>
       <c r="H230" t="n">
         <v>17230</v>
@@ -18939,7 +18939,7 @@
         <v>200</v>
       </c>
       <c r="G231" t="n">
-        <v>827.551628552595</v>
+        <v>816.337891378234</v>
       </c>
       <c r="H231" t="n">
         <v>17230</v>
@@ -20365,7 +20365,7 @@
         <v>215</v>
       </c>
       <c r="G249" t="n">
-        <v>884.716311803502</v>
+        <v>873.309234333031</v>
       </c>
       <c r="H249" t="n">
         <v>17230</v>
@@ -20450,7 +20450,7 @@
         <v>215</v>
       </c>
       <c r="G250" t="n">
-        <v>884.716311803502</v>
+        <v>873.309234333031</v>
       </c>
       <c r="H250" t="n">
         <v>17230</v>
@@ -20535,7 +20535,7 @@
         <v>215</v>
       </c>
       <c r="G251" t="n">
-        <v>884.716311803502</v>
+        <v>873.309234333031</v>
       </c>
       <c r="H251" t="n">
         <v>17230</v>
@@ -20620,7 +20620,7 @@
         <v>215</v>
       </c>
       <c r="G252" t="n">
-        <v>884.716311803502</v>
+        <v>873.309234333031</v>
       </c>
       <c r="H252" t="n">
         <v>17230</v>
